--- a/biology/Botanique/Lilian_Austin/Lilian_Austin.xlsx
+++ b/biology/Botanique/Lilian_Austin/Lilian_Austin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Lilian Austin' est un cultivar de rosier obtenu en 1973 par le fameux rosiériste anglais David Austin[1]. il est issu d'un croisement 'Aloha' (hybride de thé, Boerner, 1949) x 'The Yeoman' (Austin, 1969). Il doit son nom à la mère de l'obtenteur.
+'Lilian Austin' est un cultivar de rosier obtenu en 1973 par le fameux rosiériste anglais David Austin. il est issu d'un croisement 'Aloha' (hybride de thé, Boerner, 1949) x 'The Yeoman' (Austin, 1969). Il doit son nom à la mère de l'obtenteur.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un buisson au port érigé pouvant atteindre de 120 à 130 cm de hauteur pour 120 à 150 cm de largeur. Son feuillage est vert foncé mat. Ses délicates fleurs sont de différentes nuances de rose et légèrement parfumées. Elles sont doubles (17 à 25 pétales) et fleurissent en petits groupes en forme de coupe[1], laissant bien voir les étamines lorsqu'elles sont épanouies.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un buisson au port érigé pouvant atteindre de 120 à 130 cm de hauteur pour 120 à 150 cm de largeur. Son feuillage est vert foncé mat. Ses délicates fleurs sont de différentes nuances de rose et légèrement parfumées. Elles sont doubles (17 à 25 pétales) et fleurissent en petits groupes en forme de coupe, laissant bien voir les étamines lorsqu'elles sont épanouies.
 La floraison est abondante et remontante.
 Sa zone de rusticité est de 6b à 10b ; il supporte donc les hivers froids.
 Il est parfait pour éclairer les massifs et pour servir de fleur à couper. On peut l'admirer notamment à l'Europa-Rosarium de Sangerhausen en Allemagne.
@@ -546,7 +560,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">'Lilian Austin' a donné naissance à 'The Reeve' (Austin, 1979) par croisement avec 'Chaucer' ; à 'English Garden' (Austin, 1986) par croisement avec un semis x 'Fée des Neiges' ; ainsi qu'à 'Othello' (Austin, 1986) par croisement avec 'The Squire' et aussi à 'The Prince' (Austin, 1990) par croisement avec 'The Squire'.
 </t>
